--- a/02 - Fundamentals/00 - Common Lectures/Common Lectures - Videos.xlsx
+++ b/02 - Fundamentals/00 - Common Lectures/Common Lectures - Videos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Darina\Programming and Software\JavaScript\02 - Fundamentals\00 - Common Lectures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826E9416-A2FD-46F3-BCB1-B4A74206C5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC610AA7-E298-47CF-8AA8-A510136E33E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{2AD9B363-61AC-493E-8B55-3FEC3F69C7AF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>First Steps in Coding</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>https://youtu.be/ATVLAbrsv_U</t>
+  </si>
+  <si>
+    <t>Language Comparison</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ZtRCxBAlxek</t>
   </si>
 </sst>
 </file>
@@ -566,10 +572,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75D817D-E658-4F45-9B44-584E0D7B5125}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,78 +586,82 @@
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
+      <c r="A11" s="2"/>
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -659,35 +669,35 @@
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
+      <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
+      <c r="A17" s="1"/>
     </row>
     <row r="18" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
+      <c r="A19" s="1"/>
     </row>
     <row r="20" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
+      <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
@@ -721,7 +731,12 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
+    <row r="31" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>